--- a/src/test/resources/testdata/ExelenterEmployeesList.xlsx
+++ b/src/test/resources/testdata/ExelenterEmployeesList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahnoza/IdeaProjects/TestNGFrameworkB1/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFFB684-5024-DB4C-8171-FA4A523C08B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114AA120-C05B-084A-A365-A278AD5E5BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7640" yWindow="-16300" windowWidth="17800" windowHeight="13980" xr2:uid="{7A12BD58-98C9-E048-8107-5573E8AB6C07}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{7A12BD58-98C9-E048-8107-5573E8AB6C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
@@ -142,16 +142,16 @@
     <t>Exelent2022Sdet!</t>
   </si>
   <si>
-    <t>willadams1233</t>
-  </si>
-  <si>
-    <t>elizabethlee3132</t>
-  </si>
-  <si>
-    <t>tylernguyen3132</t>
-  </si>
-  <si>
-    <t>johnSmith1332</t>
+    <t>willAdams1233</t>
+  </si>
+  <si>
+    <t>elizabethLee3132</t>
+  </si>
+  <si>
+    <t>tylerNguyen3132</t>
+  </si>
+  <si>
+    <t>johnSmith22</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
